--- a/Model.Results.and.Projections.xlsx
+++ b/Model.Results.and.Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjpok\Documents\R\my_r_progs\M3550_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F2E9044-F21D-4736-9938-3E3CA6F219D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11D3C22-7DA0-461D-A685-E350C6CA196A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9A45312D-C3DC-4615-B19C-1781FC44DF23}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A45312D-C3DC-4615-B19C-1781FC44DF23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Date Range</t>
   </si>
@@ -118,6 +118,66 @@
   </si>
   <si>
     <t>R.min</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>Set Bounds:</t>
+  </si>
+  <si>
+    <t>Ratio To Central Projections:</t>
+  </si>
+  <si>
+    <t>Central (R.rat = 1)</t>
+  </si>
+  <si>
+    <t>Central (R.rat = .99)</t>
+  </si>
+  <si>
+    <t>Central (R.rat = .975)</t>
+  </si>
+  <si>
+    <t>Central (R.rat = .96)</t>
+  </si>
+  <si>
+    <t>Upper (R.rat = 1)</t>
+  </si>
+  <si>
+    <t>Upper (R.rat = .99)</t>
+  </si>
+  <si>
+    <t>Upper (R.rat = .975)</t>
+  </si>
+  <si>
+    <t>Upper (R.rat = .96)</t>
+  </si>
+  <si>
+    <t>Lower (R.rat = 1)</t>
+  </si>
+  <si>
+    <t>Lower (R.rat = .99)</t>
+  </si>
+  <si>
+    <t>Lower (R.rat = .975)</t>
+  </si>
+  <si>
+    <t>Lower (R.rat = .96)</t>
   </si>
 </sst>
 </file>
@@ -170,10 +230,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A78D632-6474-4C71-A1EE-8DAAE85F3041}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
@@ -896,17 +965,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1ADCEBF-0744-40C9-BACE-8BBA4EFCB72C}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -938,134 +1011,663 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B2">
         <v>3081985</v>
       </c>
       <c r="C2">
-        <v>1148446</v>
+        <v>2075558</v>
       </c>
       <c r="D2">
-        <v>1148446</v>
+        <v>2075558</v>
       </c>
       <c r="E2">
-        <v>648454.19999999995</v>
+        <v>366498.8</v>
       </c>
       <c r="F2">
         <v>30463.87</v>
       </c>
       <c r="G2">
-        <v>632604.1</v>
+        <v>366498.8</v>
       </c>
       <c r="H2">
-        <v>1418950</v>
+        <v>757943</v>
       </c>
       <c r="I2">
         <v>87551.33</v>
       </c>
       <c r="J2">
-        <v>1418950</v>
+        <v>757943</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>5</v>
+      <c r="A3" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B3">
         <v>3081985</v>
       </c>
       <c r="C3">
-        <v>2926205</v>
+        <v>2631367</v>
       </c>
       <c r="D3">
-        <v>2926205</v>
+        <v>2631367</v>
       </c>
       <c r="E3">
-        <v>66721.52</v>
+        <v>130706</v>
       </c>
       <c r="F3">
-        <v>14707.21</v>
+        <v>30463.87</v>
       </c>
       <c r="G3">
-        <v>14707.21</v>
+        <v>130706</v>
       </c>
       <c r="H3">
-        <v>259087.4</v>
+        <v>437926.9</v>
       </c>
       <c r="I3">
         <v>87551.33</v>
       </c>
       <c r="J3">
-        <v>259087.4</v>
+        <v>437926.9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B4">
         <v>3081985</v>
       </c>
       <c r="C4">
-        <v>2861912</v>
+        <v>2916384</v>
       </c>
       <c r="D4">
-        <v>2861912</v>
+        <v>2916384</v>
       </c>
       <c r="E4">
-        <v>75367.149999999994</v>
+        <v>53884.22</v>
       </c>
       <c r="F4">
-        <v>30079.51</v>
+        <v>25733.52</v>
       </c>
       <c r="G4">
-        <v>30079.51</v>
+        <v>25733.52</v>
       </c>
       <c r="H4">
-        <v>308008.5</v>
+        <v>257882.5</v>
       </c>
       <c r="I4">
         <v>87551.33</v>
       </c>
       <c r="J4">
-        <v>308008.5</v>
+        <v>257882.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>7</v>
+      <c r="A5" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B5">
         <v>3081985</v>
       </c>
       <c r="C5">
-        <v>1957735</v>
+        <v>2985157</v>
       </c>
       <c r="D5">
-        <v>1957735</v>
+        <v>2985157</v>
       </c>
       <c r="E5">
-        <v>368382.2</v>
+        <v>47100.78</v>
       </c>
       <c r="F5">
-        <v>30463.87</v>
+        <v>8652.7919999999995</v>
       </c>
       <c r="G5">
-        <v>368382.2</v>
+        <v>8652.7919999999995</v>
       </c>
       <c r="H5">
-        <v>873882.8</v>
+        <v>206189.9</v>
       </c>
       <c r="I5">
         <v>87551.33</v>
       </c>
       <c r="J5">
-        <v>873882.8</v>
+        <v>206189.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <f>MAX(B2:B5)</f>
+        <v>3081985</v>
+      </c>
+      <c r="C6">
+        <f>MIN(C2:C5)</f>
+        <v>2075558</v>
+      </c>
+      <c r="E6">
+        <f>MAX(E2:E5)</f>
+        <v>366498.8</v>
+      </c>
+      <c r="F6">
+        <f>MIN(F2:F5)</f>
+        <v>8652.7919999999995</v>
+      </c>
+      <c r="H6">
+        <f>MAX(H2:H5)</f>
+        <v>757943</v>
+      </c>
+      <c r="I6">
+        <f>MIN(I2:I5)</f>
+        <v>87551.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>3081985</v>
+      </c>
+      <c r="C7">
+        <v>1507013</v>
+      </c>
+      <c r="D7">
+        <v>1507013</v>
+      </c>
+      <c r="E7">
+        <v>673512.7</v>
+      </c>
+      <c r="F7">
+        <v>30463.87</v>
+      </c>
+      <c r="G7">
+        <v>673512.7</v>
+      </c>
+      <c r="H7">
+        <v>1297350</v>
+      </c>
+      <c r="I7">
+        <v>87551.33</v>
+      </c>
+      <c r="J7">
+        <v>1297350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>3081985</v>
+      </c>
+      <c r="C8">
+        <v>2227616</v>
+      </c>
+      <c r="D8">
+        <v>2227616</v>
+      </c>
+      <c r="E8">
+        <v>276489.8</v>
+      </c>
+      <c r="F8">
+        <v>30463.87</v>
+      </c>
+      <c r="G8">
+        <v>276489.8</v>
+      </c>
+      <c r="H8">
+        <v>695893.7</v>
+      </c>
+      <c r="I8">
+        <v>87551.33</v>
+      </c>
+      <c r="J8">
+        <v>695893.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>3081985</v>
+      </c>
+      <c r="C9">
+        <v>2812539</v>
+      </c>
+      <c r="D9">
+        <v>2812539</v>
+      </c>
+      <c r="E9">
+        <v>74885.88</v>
+      </c>
+      <c r="F9">
+        <v>30463.87</v>
+      </c>
+      <c r="G9">
+        <v>49969.57</v>
+      </c>
+      <c r="H9">
+        <v>337491.9</v>
+      </c>
+      <c r="I9">
+        <v>87551.33</v>
+      </c>
+      <c r="J9">
+        <v>337491.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>3081985</v>
+      </c>
+      <c r="C10">
+        <v>2940054</v>
+      </c>
+      <c r="D10">
+        <v>2940054</v>
+      </c>
+      <c r="E10">
+        <v>59614.84</v>
+      </c>
+      <c r="F10">
+        <v>14487.73</v>
+      </c>
+      <c r="G10">
+        <v>14487.73</v>
+      </c>
+      <c r="H10">
+        <v>245458.2</v>
+      </c>
+      <c r="I10">
+        <v>87551.33</v>
+      </c>
+      <c r="J10">
+        <v>245458.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <f>MAX(B7:B10)</f>
+        <v>3081985</v>
+      </c>
+      <c r="C11">
+        <f>MIN(C7:C10)</f>
+        <v>1507013</v>
+      </c>
+      <c r="E11">
+        <f>MAX(E7:E10)</f>
+        <v>673512.7</v>
+      </c>
+      <c r="F11">
+        <f>MIN(F7:F10)</f>
+        <v>14487.73</v>
+      </c>
+      <c r="H11">
+        <f>MAX(H7:H10)</f>
+        <v>1297350</v>
+      </c>
+      <c r="I11">
+        <f>MIN(I7:I10)</f>
+        <v>87551.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>3081985</v>
+      </c>
+      <c r="C12">
+        <v>2446718</v>
+      </c>
+      <c r="D12">
+        <v>2446718</v>
+      </c>
+      <c r="E12">
+        <v>182788.3</v>
+      </c>
+      <c r="F12">
+        <v>30463.87</v>
+      </c>
+      <c r="G12">
+        <v>182788.3</v>
+      </c>
+      <c r="H12">
+        <v>479510.1</v>
+      </c>
+      <c r="I12">
+        <v>87551.33</v>
+      </c>
+      <c r="J12">
+        <v>479510.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>3081985</v>
+      </c>
+      <c r="C13">
+        <v>2820793</v>
+      </c>
+      <c r="D13">
+        <v>2820793</v>
+      </c>
+      <c r="E13">
+        <v>64424.36</v>
+      </c>
+      <c r="F13">
+        <v>30463.87</v>
+      </c>
+      <c r="G13">
+        <v>64424.36</v>
+      </c>
+      <c r="H13">
+        <v>314782.40000000002</v>
+      </c>
+      <c r="I13">
+        <v>87551.33</v>
+      </c>
+      <c r="J13">
+        <v>314782.40000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>3081985</v>
+      </c>
+      <c r="C14">
+        <v>2964568</v>
+      </c>
+      <c r="D14">
+        <v>2964568</v>
+      </c>
+      <c r="E14">
+        <v>44670.04</v>
+      </c>
+      <c r="F14">
+        <v>15484.7</v>
+      </c>
+      <c r="G14">
+        <v>15484.7</v>
+      </c>
+      <c r="H14">
+        <v>219947.5</v>
+      </c>
+      <c r="I14">
+        <v>87551.33</v>
+      </c>
+      <c r="J14">
+        <v>219947.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>3081985</v>
+      </c>
+      <c r="C15">
+        <v>3005624</v>
+      </c>
+      <c r="D15">
+        <v>3005624</v>
+      </c>
+      <c r="E15">
+        <v>41758.78</v>
+      </c>
+      <c r="F15">
+        <v>6132.1360000000004</v>
+      </c>
+      <c r="G15">
+        <v>6132.1360000000004</v>
+      </c>
+      <c r="H15">
+        <v>188244.1</v>
+      </c>
+      <c r="I15">
+        <v>87551.33</v>
+      </c>
+      <c r="J15">
+        <v>188244.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <f>MAX(B12:B15)</f>
+        <v>3081985</v>
+      </c>
+      <c r="C16">
+        <f>MIN(C12:C15)</f>
+        <v>2446718</v>
+      </c>
+      <c r="E16">
+        <f>MAX(E12:E15)</f>
+        <v>182788.3</v>
+      </c>
+      <c r="F16">
+        <f>MIN(F12:F15)</f>
+        <v>6132.1360000000004</v>
+      </c>
+      <c r="H16">
+        <f>MAX(H12:H15)</f>
+        <v>479510.1</v>
+      </c>
+      <c r="I16">
+        <f>MIN(I12:I15)</f>
+        <v>87551.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f>C7/C2</f>
+        <v>0.7260760720731485</v>
+      </c>
+      <c r="C19">
+        <f>E7/E2</f>
+        <v>1.8376941479753821</v>
+      </c>
+      <c r="D19">
+        <f>G7/G2</f>
+        <v>1.8376941479753821</v>
+      </c>
+      <c r="E19">
+        <f>H7/H2</f>
+        <v>1.7116722497602062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <f>C8/C3</f>
+        <v>0.84656226212459151</v>
+      </c>
+      <c r="C20">
+        <f>E8/E3</f>
+        <v>2.1153566018392422</v>
+      </c>
+      <c r="D20">
+        <f>G8/G3</f>
+        <v>2.1153566018392422</v>
+      </c>
+      <c r="E20">
+        <f>H8/H3</f>
+        <v>1.5890636085611547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <f>C9/C4</f>
+        <v>0.96439254912933281</v>
+      </c>
+      <c r="C21">
+        <f>E9/E4</f>
+        <v>1.3897552938504074</v>
+      </c>
+      <c r="D21">
+        <f>G9/G4</f>
+        <v>1.9418085827356693</v>
+      </c>
+      <c r="E21">
+        <f>H9/H4</f>
+        <v>1.3087041579013698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <f>C10/C5</f>
+        <v>0.98489091193528511</v>
+      </c>
+      <c r="C22">
+        <f>E10/E5</f>
+        <v>1.2656868952064062</v>
+      </c>
+      <c r="D22">
+        <f>G10/G5</f>
+        <v>1.6743416460259302</v>
+      </c>
+      <c r="E22">
+        <f>H10/H5</f>
+        <v>1.1904472527509835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <f>C12/C2</f>
+        <v>1.1788242005282434</v>
+      </c>
+      <c r="C23">
+        <f>E12/E2</f>
+        <v>0.49874187855458191</v>
+      </c>
+      <c r="D23">
+        <f>G12/G2</f>
+        <v>0.49874187855458191</v>
+      </c>
+      <c r="E23">
+        <f>H12/H2</f>
+        <v>0.63264665020984423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <f>C13/C3</f>
+        <v>1.071987677887577</v>
+      </c>
+      <c r="C24">
+        <f>E13/E3</f>
+        <v>0.49289519991431152</v>
+      </c>
+      <c r="D24">
+        <f>G13/G3</f>
+        <v>0.49289519991431152</v>
+      </c>
+      <c r="E24">
+        <f>H13/H3</f>
+        <v>0.71880124285582825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <f>C14/C4</f>
+        <v>1.0165218297727596</v>
+      </c>
+      <c r="C25">
+        <f>E14/E4</f>
+        <v>0.82900040123063856</v>
+      </c>
+      <c r="D25">
+        <f>G14/G4</f>
+        <v>0.60173268173184236</v>
+      </c>
+      <c r="E25">
+        <f>H14/H4</f>
+        <v>0.85289812220681904</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <f>C15/C5</f>
+        <v>1.0068562558016212</v>
+      </c>
+      <c r="C26">
+        <f>E15/E5</f>
+        <v>0.88658361920970308</v>
+      </c>
+      <c r="D26">
+        <f>G15/G5</f>
+        <v>0.70868870995627775</v>
+      </c>
+      <c r="E26">
+        <f>H15/H5</f>
+        <v>0.91296469904684963</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Model.Results.and.Projections.xlsx
+++ b/Model.Results.and.Projections.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjpok\Documents\R\my_r_progs\M3550_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjpok\OneDrive\Documents\R\my_r_progs\M3550_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11D3C22-7DA0-461D-A685-E350C6CA196A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{C11D3C22-7DA0-461D-A685-E350C6CA196A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{340BFE3D-561C-4833-8790-A71DB76D9F2A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A45312D-C3DC-4615-B19C-1781FC44DF23}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9A45312D-C3DC-4615-B19C-1781FC44DF23}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Date Segment Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="50-Day Projection Summary" sheetId="3" r:id="rId2"/>
+    <sheet name="100-Day Projection Summary" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t>Date Range</t>
   </si>
@@ -559,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A78D632-6474-4C71-A1EE-8DAAE85F3041}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
@@ -964,12 +965,727 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215E7F04-02F9-4C51-9820-F0186CFBF000}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>3081985</v>
+      </c>
+      <c r="C2">
+        <v>2825829</v>
+      </c>
+      <c r="D2">
+        <v>2825829</v>
+      </c>
+      <c r="E2">
+        <v>139218.1</v>
+      </c>
+      <c r="F2">
+        <v>30463.87</v>
+      </c>
+      <c r="G2">
+        <v>139218.1</v>
+      </c>
+      <c r="H2">
+        <v>234952.6</v>
+      </c>
+      <c r="I2">
+        <v>87551.33</v>
+      </c>
+      <c r="J2">
+        <v>234952.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>3081985</v>
+      </c>
+      <c r="C3">
+        <v>2898910</v>
+      </c>
+      <c r="D3">
+        <v>2898910</v>
+      </c>
+      <c r="E3">
+        <v>89578.3</v>
+      </c>
+      <c r="F3">
+        <v>30463.87</v>
+      </c>
+      <c r="G3">
+        <v>89578.3</v>
+      </c>
+      <c r="H3">
+        <v>211512.1</v>
+      </c>
+      <c r="I3">
+        <v>87551.33</v>
+      </c>
+      <c r="J3">
+        <v>211512.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>3081985</v>
+      </c>
+      <c r="C4">
+        <v>2964756</v>
+      </c>
+      <c r="D4">
+        <v>2964756</v>
+      </c>
+      <c r="E4">
+        <v>55688.4</v>
+      </c>
+      <c r="F4">
+        <v>30463.87</v>
+      </c>
+      <c r="G4">
+        <v>48518.53</v>
+      </c>
+      <c r="H4">
+        <v>186725.7</v>
+      </c>
+      <c r="I4">
+        <v>87551.33</v>
+      </c>
+      <c r="J4">
+        <v>186725.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>3081985</v>
+      </c>
+      <c r="C5">
+        <v>2995628</v>
+      </c>
+      <c r="D5">
+        <v>2995628</v>
+      </c>
+      <c r="E5">
+        <v>48677.84</v>
+      </c>
+      <c r="F5">
+        <v>30463.87</v>
+      </c>
+      <c r="G5">
+        <v>31476.7</v>
+      </c>
+      <c r="H5">
+        <v>172895.8</v>
+      </c>
+      <c r="I5">
+        <v>87551.33</v>
+      </c>
+      <c r="J5">
+        <v>172895.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <f>MAX(B2:B5)</f>
+        <v>3081985</v>
+      </c>
+      <c r="C6">
+        <f>MIN(C2:C5)</f>
+        <v>2825829</v>
+      </c>
+      <c r="E6">
+        <f>MAX(E2:E5)</f>
+        <v>139218.1</v>
+      </c>
+      <c r="F6">
+        <f>MIN(F2:F5)</f>
+        <v>30463.87</v>
+      </c>
+      <c r="H6">
+        <f>MAX(H2:H5)</f>
+        <v>234952.6</v>
+      </c>
+      <c r="I6">
+        <f>MIN(I2:I5)</f>
+        <v>87551.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>3081985</v>
+      </c>
+      <c r="C7">
+        <v>2729201</v>
+      </c>
+      <c r="D7">
+        <v>2729201</v>
+      </c>
+      <c r="E7">
+        <v>237878.7</v>
+      </c>
+      <c r="F7">
+        <v>30463.87</v>
+      </c>
+      <c r="G7">
+        <v>237878.7</v>
+      </c>
+      <c r="H7">
+        <v>293930.90000000002</v>
+      </c>
+      <c r="I7">
+        <v>87551.33</v>
+      </c>
+      <c r="J7">
+        <v>293930.90000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>3081985</v>
+      </c>
+      <c r="C8">
+        <v>2802956</v>
+      </c>
+      <c r="D8">
+        <v>2802956</v>
+      </c>
+      <c r="E8">
+        <v>144451.9</v>
+      </c>
+      <c r="F8">
+        <v>30463.87</v>
+      </c>
+      <c r="G8">
+        <v>144451.9</v>
+      </c>
+      <c r="H8">
+        <v>252591.8</v>
+      </c>
+      <c r="I8">
+        <v>87551.33</v>
+      </c>
+      <c r="J8">
+        <v>252591.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>3081985</v>
+      </c>
+      <c r="C9">
+        <v>2917347</v>
+      </c>
+      <c r="D9">
+        <v>2917347</v>
+      </c>
+      <c r="E9">
+        <v>74885.88</v>
+      </c>
+      <c r="F9">
+        <v>30463.87</v>
+      </c>
+      <c r="G9">
+        <v>70945.14</v>
+      </c>
+      <c r="H9">
+        <v>211707.6</v>
+      </c>
+      <c r="I9">
+        <v>87551.33</v>
+      </c>
+      <c r="J9">
+        <v>211707.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>3081985</v>
+      </c>
+      <c r="C10">
+        <v>2966810</v>
+      </c>
+      <c r="D10">
+        <v>2966810</v>
+      </c>
+      <c r="E10">
+        <v>59614.84</v>
+      </c>
+      <c r="F10">
+        <v>30463.87</v>
+      </c>
+      <c r="G10">
+        <v>42876.26</v>
+      </c>
+      <c r="H10">
+        <v>190313.9</v>
+      </c>
+      <c r="I10">
+        <v>87551.33</v>
+      </c>
+      <c r="J10">
+        <v>190313.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <f>MAX(B7:B10)</f>
+        <v>3081985</v>
+      </c>
+      <c r="C11">
+        <f>MIN(C7:C10)</f>
+        <v>2729201</v>
+      </c>
+      <c r="E11">
+        <f>MAX(E7:E10)</f>
+        <v>237878.7</v>
+      </c>
+      <c r="F11">
+        <f>MIN(F7:F10)</f>
+        <v>30463.87</v>
+      </c>
+      <c r="H11">
+        <f>MAX(H7:H10)</f>
+        <v>293930.90000000002</v>
+      </c>
+      <c r="I11">
+        <f>MIN(I7:I10)</f>
+        <v>87551.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>3081985</v>
+      </c>
+      <c r="C12">
+        <v>2883509</v>
+      </c>
+      <c r="D12">
+        <v>2883509</v>
+      </c>
+      <c r="E12">
+        <v>88228.36</v>
+      </c>
+      <c r="F12">
+        <v>30463.87</v>
+      </c>
+      <c r="G12">
+        <v>88228.36</v>
+      </c>
+      <c r="H12">
+        <v>200662.9</v>
+      </c>
+      <c r="I12">
+        <v>87551.33</v>
+      </c>
+      <c r="J12">
+        <v>200662.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>3081985</v>
+      </c>
+      <c r="C13">
+        <v>2955663</v>
+      </c>
+      <c r="D13">
+        <v>2955663</v>
+      </c>
+      <c r="E13">
+        <v>58840.01</v>
+      </c>
+      <c r="F13">
+        <v>30463.87</v>
+      </c>
+      <c r="G13">
+        <v>58840.01</v>
+      </c>
+      <c r="H13">
+        <v>185496.9</v>
+      </c>
+      <c r="I13">
+        <v>87551.33</v>
+      </c>
+      <c r="J13">
+        <v>185496.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>3081985</v>
+      </c>
+      <c r="C14">
+        <v>2995410</v>
+      </c>
+      <c r="D14">
+        <v>2995410</v>
+      </c>
+      <c r="E14">
+        <v>44670.04</v>
+      </c>
+      <c r="F14">
+        <v>30463.87</v>
+      </c>
+      <c r="G14">
+        <v>34771.56</v>
+      </c>
+      <c r="H14">
+        <v>169818.3</v>
+      </c>
+      <c r="I14">
+        <v>87551.33</v>
+      </c>
+      <c r="J14">
+        <v>169818.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>3081985</v>
+      </c>
+      <c r="C15">
+        <v>3015412</v>
+      </c>
+      <c r="D15">
+        <v>3015412</v>
+      </c>
+      <c r="E15">
+        <v>41758.78</v>
+      </c>
+      <c r="F15">
+        <v>24012.240000000002</v>
+      </c>
+      <c r="G15">
+        <v>24012.240000000002</v>
+      </c>
+      <c r="H15">
+        <v>160575.29999999999</v>
+      </c>
+      <c r="I15">
+        <v>87551.33</v>
+      </c>
+      <c r="J15">
+        <v>160575.29999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <f>MAX(B12:B15)</f>
+        <v>3081985</v>
+      </c>
+      <c r="C16">
+        <f>MIN(C12:C15)</f>
+        <v>2883509</v>
+      </c>
+      <c r="E16">
+        <f>MAX(E12:E15)</f>
+        <v>88228.36</v>
+      </c>
+      <c r="F16">
+        <f>MIN(F12:F15)</f>
+        <v>24012.240000000002</v>
+      </c>
+      <c r="H16">
+        <f>MAX(H12:H15)</f>
+        <v>200662.9</v>
+      </c>
+      <c r="I16">
+        <f>MIN(I12:I15)</f>
+        <v>87551.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f>C7/C2</f>
+        <v>0.96580543267126218</v>
+      </c>
+      <c r="C19">
+        <f>E7/E2</f>
+        <v>1.7086765298477713</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:E22" si="0">G7/G2</f>
+        <v>1.7086765298477713</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.2510221210576091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <f>C8/C3</f>
+        <v>0.9668999727483778</v>
+      </c>
+      <c r="C20">
+        <f>E8/E3</f>
+        <v>1.6125769299037824</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.6125769299037824</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.1942191486917295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <f>C9/C4</f>
+        <v>0.98400913936931067</v>
+      </c>
+      <c r="C21">
+        <f>E9/E4</f>
+        <v>1.3447303208567674</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.462227730312522</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.1337892962779093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <f>C10/C5</f>
+        <v>0.99037998042480579</v>
+      </c>
+      <c r="C22">
+        <f>E10/E5</f>
+        <v>1.224681292349866</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.3621586761000994</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.1007433378948477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <f>C12/C2</f>
+        <v>1.0204117092718632</v>
+      </c>
+      <c r="C23">
+        <f>E12/E2</f>
+        <v>0.63374202061369889</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:E26" si="1">G12/G2</f>
+        <v>0.63374202061369889</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.85405694595420523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <f>C13/C3</f>
+        <v>1.019577358386428</v>
+      </c>
+      <c r="C24">
+        <f>E13/E3</f>
+        <v>0.65685562239962136</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.65685562239962136</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.87700372697353957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <f>C14/C4</f>
+        <v>1.0103394680708968</v>
+      </c>
+      <c r="C25">
+        <f>E14/E4</f>
+        <v>0.80214263652753537</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.71666557086539928</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0.90945327825789368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <f>C15/C5</f>
+        <v>1.0066042913205511</v>
+      </c>
+      <c r="C26">
+        <f>E15/E5</f>
+        <v>0.85786016799430709</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.76285760578459627</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0.92874031642179855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1ADCEBF-0744-40C9-BACE-8BBA4EFCB72C}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J16"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1511,11 +2227,11 @@
         <v>1.8376941479753821</v>
       </c>
       <c r="D19">
-        <f>G7/G2</f>
+        <f t="shared" ref="D19:E22" si="0">G7/G2</f>
         <v>1.8376941479753821</v>
       </c>
       <c r="E19">
-        <f>H7/H2</f>
+        <f t="shared" si="0"/>
         <v>1.7116722497602062</v>
       </c>
     </row>
@@ -1532,11 +2248,11 @@
         <v>2.1153566018392422</v>
       </c>
       <c r="D20">
-        <f>G8/G3</f>
+        <f t="shared" si="0"/>
         <v>2.1153566018392422</v>
       </c>
       <c r="E20">
-        <f>H8/H3</f>
+        <f t="shared" si="0"/>
         <v>1.5890636085611547</v>
       </c>
     </row>
@@ -1553,11 +2269,11 @@
         <v>1.3897552938504074</v>
       </c>
       <c r="D21">
-        <f>G9/G4</f>
+        <f t="shared" si="0"/>
         <v>1.9418085827356693</v>
       </c>
       <c r="E21">
-        <f>H9/H4</f>
+        <f t="shared" si="0"/>
         <v>1.3087041579013698</v>
       </c>
     </row>
@@ -1574,11 +2290,11 @@
         <v>1.2656868952064062</v>
       </c>
       <c r="D22">
-        <f>G10/G5</f>
+        <f t="shared" si="0"/>
         <v>1.6743416460259302</v>
       </c>
       <c r="E22">
-        <f>H10/H5</f>
+        <f t="shared" si="0"/>
         <v>1.1904472527509835</v>
       </c>
     </row>
@@ -1595,11 +2311,11 @@
         <v>0.49874187855458191</v>
       </c>
       <c r="D23">
-        <f>G12/G2</f>
+        <f t="shared" ref="D23:E26" si="1">G12/G2</f>
         <v>0.49874187855458191</v>
       </c>
       <c r="E23">
-        <f>H12/H2</f>
+        <f t="shared" si="1"/>
         <v>0.63264665020984423</v>
       </c>
     </row>
@@ -1616,11 +2332,11 @@
         <v>0.49289519991431152</v>
       </c>
       <c r="D24">
-        <f>G13/G3</f>
+        <f t="shared" si="1"/>
         <v>0.49289519991431152</v>
       </c>
       <c r="E24">
-        <f>H13/H3</f>
+        <f t="shared" si="1"/>
         <v>0.71880124285582825</v>
       </c>
     </row>
@@ -1637,11 +2353,11 @@
         <v>0.82900040123063856</v>
       </c>
       <c r="D25">
-        <f>G14/G4</f>
+        <f t="shared" si="1"/>
         <v>0.60173268173184236</v>
       </c>
       <c r="E25">
-        <f>H14/H4</f>
+        <f t="shared" si="1"/>
         <v>0.85289812220681904</v>
       </c>
     </row>
@@ -1658,11 +2374,11 @@
         <v>0.88658361920970308</v>
       </c>
       <c r="D26">
-        <f>G15/G5</f>
+        <f t="shared" si="1"/>
         <v>0.70868870995627775</v>
       </c>
       <c r="E26">
-        <f>H15/H5</f>
+        <f t="shared" si="1"/>
         <v>0.91296469904684963</v>
       </c>
     </row>
